--- a/test/RepoTests/RepoTests/Colors2Repo/TestJson_NeedsUpdating.xlsx
+++ b/test/RepoTests/RepoTests/Colors2Repo/TestJson_NeedsUpdating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MitchellDenC\source\repos\EDennis.AspNetCore.Base\test\MiddlewareTests\MiddlewareTests\DbContextInterceptor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denmi\source\repos\EDennis.AspNetCore.Base\test\RepoTests\RepoTests\Colors2Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A8FF8-DF1E-46B0-9895-5D3005A0894C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C829AE8-69DC-4D2D-84B9-5740D6D38948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{914E17DC-A849-42DE-BD5C-694BB7A8109C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{914E17DC-A849-42DE-BD5C-694BB7A8109C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
   <si>
     <t>ProjectName</t>
   </si>
@@ -154,15 +154,58 @@
   </si>
   <si>
     <t>[{"Id":-999001, "Name":"Mike", "SysUser":"jack@hill.org"}, {"Id":-999002, "Name":"Carol", "SysUser":"jill@hill.org"}, {"Id":-999003, "Name":"Greg", "SysUser":"jack@hill.org"}]</t>
+  </si>
+  <si>
+    <t>ColorsRepo</t>
+  </si>
+  <si>
+    <t>ColorRepo</t>
+  </si>
+  <si>
+    <t>ReadSeed</t>
+  </si>
+  <si>
+    <t>[
+  {"Id":-99901,"SysStart":"2018-01-01","Name":"black","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jack"},
+  {"Id":-99902,"SysStart":"2018-02-02","Name":"white","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jack"},		    
+  {"Id":-99903,"SysStart":"2018-03-03","Name":"gray","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jack"}		   
+]</t>
+  </si>
+  <si>
+    <t>[		   
+  {"Id":-99904,"SysStart":"2018-04-04","Name":"red","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jill"},
+  {"Id":-99905,"SysStart":"2018-05-05","Name":"green","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jill"},		    
+  {"Id":-99906,"SysStart":"2018-06-06","Name":"blue","SysEnd":"9999-12-31 23:59:59.9999999","SysUser":"jill"}		
+]</t>
+  </si>
+  <si>
+    <t>WriteSeed</t>
+  </si>
+  <si>
+    <t>{ANY}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,9 +232,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,25 +557,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF70F6-41B8-4967-A575-80BF52770920}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="16.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.73046875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,611 +594,638 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>